--- a/meta/3-9-2.xlsx
+++ b/meta/3-9-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 1 ноября\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1BCEE-AAC6-42A1-9AC8-BB1CEF11D8BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.9.2" sheetId="1" r:id="rId1"/>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -288,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -327,8 +325,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,231 +603,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="46.578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="58.578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" ht="166.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B26" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="13"/>
-      <c r="K65" s="14"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2" display="gulhumara@mail.ru"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" display="gulhumara@mail.ru" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId3"/>

--- a/meta/3-9-2.xlsx
+++ b/meta/3-9-2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1BCEE-AAC6-42A1-9AC8-BB1CEF11D8BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C5019-5CA9-432B-A9A8-D20531D1223E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3.9.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,153 +31,158 @@
     <t>1. Информация об индикаторе</t>
   </si>
   <si>
-    <t>Цель 3</t>
-  </si>
-  <si>
-    <t>Обеспечение здорового образа жизни и содействие благополучию для всех в любом возрасте</t>
-  </si>
-  <si>
-    <t>Задача 3.9</t>
-  </si>
-  <si>
-    <t>К 2030 году существенно сократить количество случаев смерти и заболевания в результате воздействия опасных химических веществ и загрязнения и отравления воздуха, воды и почв</t>
+    <t>Цель</t>
+  </si>
+  <si>
+    <t>Задача</t>
   </si>
   <si>
     <t>Индикатор</t>
   </si>
   <si>
-    <t>3.9.2 Смертность ототсутствия безопасной воды, безопасной санитарии и гигиены (от отсутствия безопасных услуг в области водоснабжения, санитарии и гигиены (ВССГ) для всех)</t>
-  </si>
-  <si>
     <t>2. Информация об организации</t>
   </si>
   <si>
     <t>Организация</t>
   </si>
   <si>
-    <t xml:space="preserve"> НСК КР, ГРС при ПКР, Минздрав КР</t>
-  </si>
-  <si>
     <t>Контактное лицо (лица) / Координатор</t>
   </si>
   <si>
+    <t>Электронная почта контактного лица</t>
+  </si>
+  <si>
+    <t>Телефон контактного лица</t>
+  </si>
+  <si>
+    <t>Сайт организации (если есть)</t>
+  </si>
+  <si>
+    <t>3. Определения и понятия</t>
+  </si>
+  <si>
+    <t>Определение</t>
+  </si>
+  <si>
+    <t>Основные понятия:</t>
+  </si>
+  <si>
+    <t>Обоснование и толкование</t>
+  </si>
+  <si>
+    <t>4. Источники данных и методы сбора</t>
+  </si>
+  <si>
+    <t>Источники данных</t>
+  </si>
+  <si>
+    <t>Методы сбора данных</t>
+  </si>
+  <si>
+    <t>5. Метод расчета и другие методологические основы</t>
+  </si>
+  <si>
+    <t>Метод расчета:</t>
+  </si>
+  <si>
+    <t>Комментарий и ограничения:</t>
+  </si>
+  <si>
+    <t>Гарантия качества:</t>
+  </si>
+  <si>
+    <t>6. Доступность данных и дезагрегация</t>
+  </si>
+  <si>
+    <t>Доступность данных и пробелы:</t>
+  </si>
+  <si>
+    <t>Разбивка:</t>
+  </si>
+  <si>
+    <t>7. Сопоставимость с международными данными / стандартами</t>
+  </si>
+  <si>
+    <t>8. Ссылки и документация</t>
+  </si>
+  <si>
+    <t>3: Обеспечение здорового образа жизни и содействие благополучию для всех в любом возрасте</t>
+  </si>
+  <si>
+    <t>3.9. К 2030 году существенно сократить количество случаев смерти и заболевания в результате воздействия опасных химических веществ и загрязнения, и отравления воздуха, воды и почв</t>
+  </si>
+  <si>
+    <t>3.9.2 Смертность от отсутствия безопасной воды, безопасной санитарии и гигиены (от отсутствия безопасных услуг в области водоснабжения, санитарии и гигиены (ВССГ) для всех)</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР  (Отдел демографической статистики)</t>
+  </si>
+  <si>
     <t>Таипова Т.С.</t>
   </si>
   <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
     <t>tamarataipova@mail.ru, t.taipova@stat.kg</t>
   </si>
   <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>(0312) 32 46 36</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
+    <t>+996 (0312) 32 46 36</t>
   </si>
   <si>
     <t>www.stat.kg</t>
   </si>
   <si>
-    <t>3. Определения и понятия</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смертность в результате употребления нечистой воды, антисанитарии и недостаточной гигиены (воздействия некачественных услуг в области водоснабжения, санитарии и гигиены (WASH)). </t>
-  </si>
-  <si>
-    <t>Основные понятия:</t>
-  </si>
-  <si>
-    <t>Случаи смерти, связанные с нечистой водой, антисанитарией и недостаточной гигиеной, с особым акцентом на качестве  услуг WASH. Включенными заболеваниями являются фракции диареи (МКБ-10 код А00, А01, А03, А04, А06-А09), вызванные некачественными услугами WASH, инфекции кишечной нематоды (МКБ-10 код В76-В77, В79) и недостаточность белковой пищи (МКБ-10 Е40-Е46).</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>Показатель выражает количество смертей из-за нечистой воды, антисанитарии и недостаточной гигиены ( с акцентом на услуги WASH), которые могут быть предотвращены путем улучшения качества этих услуг и практики их применения. Он основан как на информации о качестве услуг WASH в стране, так и на данных о состоянии здоровья населения в результате их использования, и, следовательно, содержит важную информацию о фактических заболеваниях.</t>
-  </si>
-  <si>
-    <t>4. Источники данных и методы сбора</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
+    <t>Число смертей в результате употребления нечистой воды, антисанитарии и недостаточной гигиены (воздействия некачественных услуг в области водоснабжения, санитарии и гигиены (WASH)) на 100 000 населения.</t>
+  </si>
+  <si>
+    <t>Случаи смерти, связанные с нечистой водой, антисанитарией и недостаточной гигиеной, с особым акцентом на качествеуслуг WASH. Включенными заболеваниями являются фракции диареи (МКБ-10 код А00, А01, А03, А04, А06-А09), вызванные некачественными услугами WASH, инфекции кишечной нематоды (МКБ-10 код В76-В77, В79) и недостаточность белковой пищи (МКБ-10 Е40-Е46).</t>
+  </si>
+  <si>
+    <t>Показатель выражает количество смертей из-за нечистой воды, антисанитарии и недостаточной гигиены (с акцентом на услуги WASH), которые могут быть предотвращены путем улучшения качества этих услуг и практики их применения. Он основан как на информации о качестве услуг WASH в стране, так и на данных о состоянии здоровья населения в результате их использования, и, следовательно, содержит важную информацию о фактических заболеваниях.</t>
   </si>
   <si>
     <t>Источником информации о причинах смерти являются записи в медицинских свидетельствах о смерти, составляемых врачом или средним медицинским персоналом относительно заболевания, несчастного случая, убийства, самоубийства и другого внешнего воздействия, послуживших причиной смерти. Эти документы вместе с актовыми записями о смерти направляются для разработки в органы государственной статистики.</t>
   </si>
   <si>
-    <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>Сведения о смертях получаются на основании ежегодной статистической разработки данных, содержащихся в актовых записях о смерти, составляемых органами записи актов гражданского состояния.  Агрегированные данные собираются и обрабатываются областными управлениями статистики и НСК КР.</t>
-  </si>
-  <si>
-    <t>5. Метод расчета и другие методологические основы</t>
-  </si>
-  <si>
-    <t>Метод расчета:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отношение числа умерших от употребления нечистой воды, антисанитарии и недостаточной гигиены (воздействие небезопасных  услуг WASH) к среднегодовой численности постоянного населения по текущей оценке. Рассчитывается на 100 000 населения.
-</t>
-  </si>
-  <si>
-    <t>Комментарий и ограничения:</t>
-  </si>
-  <si>
-    <t>Знать правила кодирования первоначальной причины смерти и дефиниции, изложенные в классификаторе Международная статистическая классификация болезней и проблем, связанных со здоровьем 10-го пересмотра (МКБ-10). В случае затруднения с правильностью выставленного диагноза обратиться к сотрудникам Центра электронного здравоохранения МЗ КР с целью установления окончательного диагноза. Эти данные имеют решающее значение для улучшения здоровья и сокращения случаев предотвратимой смертности в стране.</t>
-  </si>
-  <si>
-    <t>Гарантия качества:</t>
-  </si>
-  <si>
-    <t>Проводится логический и арифметический контроль отчетных данных. Процедура проверки правильности данных в актовых записях о смерти осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. Корректировка проставленных кодов причин смерти на соответствие диагнозам, записанным в актовой записи о смерти, согласно МКБ-10. Анализ выходных таблиц по причинам смерти.</t>
-  </si>
-  <si>
-    <t>6. Доступность данных и дезагрегация</t>
-  </si>
-  <si>
-    <t>Доступность данных и пробелы:</t>
+    <t>Сведения о смертях получаются на основании ежегодной статистической разработки данных, содержащихся в актовых записях о смерти, составляемых органами записи актов гражданского состояния (ЗАГС при Государственной регистрационной службе при Правительстве КР). Агрегированные данные собираются и обрабатываются областными управлениями статистики и НСК КР.</t>
+  </si>
+  <si>
+    <t>Отношение числа умерших от употребления нечистой воды, антисанитарии и недостаточной гигиены (воздействие небезопасных услуг WASH) к среднегодовой численности постоянного населения по текущей оценке. Рассчитывается на 100 000 населения.</t>
+  </si>
+  <si>
+    <t>Знать правила кодирования первоначальной причины смерти и дефиниции, изложенные в классификаторе, Международная статистическая классификация болезней и проблем, связанных со здоровьем 10-го пересмотра (МКБ-10). В случае затруднения с правильностью выставленного диагноза обратиться к сотрудникам Центра электронного здравоохранения МЗ КР с целью установления окончательного диагноза. Эти данные имеют решающее значение для улучшения здоровья и сокращения случаев предотвратимой смертности в стране.</t>
+  </si>
+  <si>
+    <t>Проводится логический и арифметический контроль отчетных данных. Процедура проверки правильности данных в актовых записях о смерти осуществляется путем логического контроля, заложенного в программном обеспечении по вводу и разработке данных. Проводится корректировка проставленных кодов причин смерти на соответствие диагнозам, записанным в актовой записи о смерти, согласно МКБ-10, и анализ выходных таблиц по причинам смерти.</t>
   </si>
   <si>
     <t>По запросам пользователей.</t>
   </si>
   <si>
-    <t>Разбивка:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Агрегация данных по территории : республика,область, район.                                                                                                                                                Агрегация данных по полу : оба пола, мужчины, женщины. </t>
-  </si>
-  <si>
-    <t>7. Сопоставимость с международными данными / стандартами</t>
+    <t>Дезагрегация: данных по территории (республика, область, район) и по полу.</t>
   </si>
   <si>
     <t>Национальное определение показателя, используемое в статистике, соответствует его международному определению. Кодирование и разработка данных об умерших по причинам смерти производятся органами государственной статистики на основании Международной статистической классификации болезней и причин смерти 10-го пересмотра (МКБ-10) Всемирной организации здравоохранения (ВОЗ), начиная с отчета за 2000г. По соглашению с НСК база данных по смертности передается Центру электронного здравоохранения КР при Министерстве здравоохранения: форма С52 «Смертность населения по причинам смерти» – ежегодно, в июне месяце года, следующего за отчетным годом.</t>
   </si>
   <si>
-    <t>8. Ссылки и документация</t>
-  </si>
-  <si>
-    <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/metadata/files/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/.</t>
+    <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,52 +191,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -279,54 +242,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{601F6618-B2B2-4CBC-962F-4987A1496235}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,9 +283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,14 +323,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -422,9 +363,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -454,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,225 +544,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618DB1C-84AD-42DE-864A-B480C0A57DE6}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="58.578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9" t="s">
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="166.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="12"/>
-      <c r="K63" s="13"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" display="gulhumara@mail.ru" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId3"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta/3-9-2.xlsx
+++ b/meta/3-9-2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615C5019-5CA9-432B-A9A8-D20531D1223E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,9 +126,6 @@
     <t>+996 (0312) 32 46 36</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Число смертей в результате употребления нечистой воды, антисанитарии и недостаточной гигиены (воздействия некачественных услуг в области водоснабжения, санитарии и гигиены (WASH)) на 100 000 населения.</t>
   </si>
   <si>
@@ -164,18 +160,29 @@
   </si>
   <si>
     <t>Ссылки на НПА и методологию: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/.</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,32 +249,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{601F6618-B2B2-4CBC-962F-4987A1496235}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618DB1C-84AD-42DE-864A-B480C0A57DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,8 +641,8 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -653,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +672,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -697,7 +708,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -713,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +762,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
